--- a/文档0625/功能测试.xlsx
+++ b/文档0625/功能测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20300" windowHeight="8520" tabRatio="726" activeTab="1"/>
+    <workbookView windowWidth="19830" windowHeight="8370" tabRatio="726" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="标准主页" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <sheet name="帮助中心" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
   <si>
     <t xml:space="preserve">项目名称：华数网厅                测试类型：功能测试  </t>
   </si>
@@ -695,6 +696,9 @@
   </si>
   <si>
     <t>模块操作_041</t>
+  </si>
+  <si>
+    <t>进入界面</t>
   </si>
 </sst>
 </file>
@@ -702,10 +706,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1063,7 +1067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1106,16 +1110,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1123,14 +1121,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1208,9 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1242,9 +1231,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,9 +1284,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1682,21 +1665,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customHeight="1" spans="1:11">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="88"/>
-    </row>
-    <row r="2" s="69" customFormat="1" ht="19" customHeight="1" spans="1:11">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="79"/>
+    </row>
+    <row r="2" s="61" customFormat="1" ht="19" customHeight="1" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1721,332 +1704,332 @@
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:11">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="74" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="89"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:11">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="73" t="s">
+      <c r="B4" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="74" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="74" t="s">
+      <c r="G4" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="89"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:11">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="73" t="s">
+      <c r="B5" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="89"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="80"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:11">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="73" t="s">
+      <c r="B6" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="89"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="80"/>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:11">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="73" t="s">
+      <c r="B7" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="74" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="89"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="80"/>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:11">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="89"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="80"/>
     </row>
     <row r="9" ht="40" customHeight="1" spans="1:11">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74" t="s">
+      <c r="E9" s="66"/>
+      <c r="F9" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="89"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="80"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:11">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74" t="s">
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="89"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" s="9" customFormat="1" ht="61" customHeight="1" spans="1:11">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="76" t="s">
+      <c r="B11" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79" t="s">
+      <c r="E11" s="70"/>
+      <c r="F11" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="90" t="s">
+      <c r="H11" s="72"/>
+      <c r="I11" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="90" t="s">
+      <c r="J11" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="89"/>
+      <c r="K11" s="80"/>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:11">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="76" t="s">
+      <c r="B12" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79" t="s">
+      <c r="E12" s="70"/>
+      <c r="F12" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="91" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="91" t="s">
+      <c r="J12" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="89"/>
+      <c r="K12" s="80"/>
     </row>
     <row r="13" ht="45" customHeight="1" spans="1:11">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="82" t="s">
+      <c r="B13" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85" t="s">
+      <c r="E13" s="76"/>
+      <c r="F13" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="85" t="s">
+      <c r="G13" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="92" t="s">
+      <c r="H13" s="78"/>
+      <c r="I13" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="92" t="s">
+      <c r="J13" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="93"/>
+      <c r="K13" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2063,8 +2046,8 @@
   <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2081,21 +2064,21 @@
     <col min="11" max="11" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="60" customFormat="1" ht="40.5" customHeight="1" spans="1:12">
-      <c r="A1" s="51" t="s">
+    <row r="1" s="53" customFormat="1" ht="40.5" customHeight="1" spans="1:12">
+      <c r="A1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" ht="14.25" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -2122,133 +2105,132 @@
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="42" customHeight="1" spans="1:11">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="64"/>
+      <c r="I3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:11">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="61" t="s">
+      <c r="B4" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="64"/>
+      <c r="I4" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:11">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="61" t="s">
+      <c r="B5" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="65" t="s">
+      <c r="I5" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:11">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="61" t="s">
+      <c r="B6" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="22"/>
+      <c r="J6" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:11">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -2262,13 +2244,13 @@
         <v>97</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="27"/>
+      <c r="I7" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" ht="40" customHeight="1"/>
     <row r="9" ht="40" customHeight="1"/>
@@ -2311,64 +2293,64 @@
     <col min="11" max="11" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="50" customFormat="1" ht="44.25" customHeight="1" spans="1:11">
-      <c r="A1" s="51" t="s">
+    <row r="1" s="44" customFormat="1" ht="44.25" customHeight="1" spans="1:11">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" ht="14.25" spans="1:11">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:11">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>99</v>
       </c>
       <c r="D3" t="s">
@@ -2377,47 +2359,47 @@
       <c r="F3" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="48" t="s">
         <v>102</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" ht="89" customHeight="1" spans="1:11">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="22"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:11">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="43" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="30" t="s">
         <v>94</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -2434,8 +2416,8 @@
       <c r="I5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="27"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" ht="40" customHeight="1"/>
     <row r="7" ht="40" customHeight="1"/>
@@ -2484,46 +2466,46 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:11">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="48" customHeight="1" spans="1:11">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="40" t="s">
         <v>113</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2532,14 +2514,14 @@
       <c r="C3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="28" t="s">
         <v>115</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="41" t="s">
         <v>117</v>
       </c>
       <c r="H3" s="9"/>
@@ -2549,10 +2531,10 @@
       <c r="J3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" ht="57" customHeight="1" spans="1:11">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="40" t="s">
         <v>118</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2561,27 +2543,27 @@
       <c r="C4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="28" t="s">
         <v>120</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="40" t="s">
+      <c r="H4" s="42"/>
+      <c r="I4" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="22"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" ht="57" customHeight="1" spans="1:11">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="40" t="s">
         <v>125</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2590,27 +2572,27 @@
       <c r="C5" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="28" t="s">
         <v>127</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="40" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:11">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="40" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2619,27 +2601,27 @@
       <c r="C6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="28" t="s">
         <v>132</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:11">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="40" t="s">
         <v>135</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2648,27 +2630,27 @@
       <c r="C7" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="28" t="s">
         <v>137</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48" t="s">
+      <c r="H7" s="42"/>
+      <c r="I7" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:11">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="40" t="s">
         <v>141</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2677,33 +2659,33 @@
       <c r="C8" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="28" t="s">
         <v>143</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="41" t="s">
         <v>144</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="22"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" ht="40" customHeight="1" spans="1:11">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="43" t="s">
         <v>146</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="30" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -2723,7 +2705,7 @@
       <c r="J9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2770,41 +2752,41 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:11">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="33" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2815,27 +2797,27 @@
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="45"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" ht="44" customHeight="1" spans="1:11">
       <c r="A4" s="7" t="s">
@@ -2844,17 +2826,17 @@
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="28" t="s">
         <v>152</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="28" t="s">
         <v>154</v>
       </c>
       <c r="H4" s="9"/>
@@ -2864,7 +2846,7 @@
       <c r="J4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="22"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:11">
       <c r="A5" s="7" t="s">
@@ -2873,17 +2855,17 @@
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="28" t="s">
         <v>156</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="28" t="s">
         <v>157</v>
       </c>
       <c r="H5" s="9"/>
@@ -2893,7 +2875,7 @@
       <c r="J5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:11">
       <c r="A6" s="7" t="s">
@@ -2902,17 +2884,17 @@
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="28" t="s">
         <v>159</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="28" t="s">
         <v>157</v>
       </c>
       <c r="H6" s="9"/>
@@ -2922,7 +2904,7 @@
       <c r="J6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:11">
       <c r="A7" s="7" t="s">
@@ -2931,17 +2913,17 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="28" t="s">
         <v>161</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="28" t="s">
         <v>157</v>
       </c>
       <c r="H7" s="9"/>
@@ -2951,7 +2933,7 @@
       <c r="J7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:11">
       <c r="A8" s="7" t="s">
@@ -2960,27 +2942,27 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="28" t="s">
         <v>163</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="28" t="s">
         <v>157</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" ht="40" customHeight="1" spans="1:11">
       <c r="A9" s="7" t="s">
@@ -2989,17 +2971,17 @@
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="28" t="s">
         <v>166</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="28" t="s">
         <v>157</v>
       </c>
       <c r="H9" s="9"/>
@@ -3009,7 +2991,7 @@
       <c r="J9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:11">
       <c r="A10" s="7" t="s">
@@ -3018,27 +3000,27 @@
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="28" t="s">
         <v>168</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="28" t="s">
         <v>157</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="K10" s="22"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" ht="40" customHeight="1" spans="1:11">
       <c r="A11" s="7" t="s">
@@ -3047,17 +3029,17 @@
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="28" t="s">
         <v>170</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="28" t="s">
         <v>157</v>
       </c>
       <c r="H11" s="9"/>
@@ -3067,7 +3049,7 @@
       <c r="J11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:11">
       <c r="A12" s="7" t="s">
@@ -3076,17 +3058,17 @@
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="28" t="s">
         <v>172</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="28" t="s">
         <v>157</v>
       </c>
       <c r="H12" s="9"/>
@@ -3096,7 +3078,7 @@
       <c r="J12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:11">
       <c r="A13" s="7" t="s">
@@ -3108,14 +3090,14 @@
       <c r="C13" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="28" t="s">
         <v>174</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="28" t="s">
         <v>157</v>
       </c>
       <c r="H13" s="9"/>
@@ -3125,7 +3107,7 @@
       <c r="J13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="22"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" ht="40" customHeight="1" spans="1:11">
       <c r="A14" s="7" t="s">
@@ -3137,14 +3119,14 @@
       <c r="C14" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="28" t="s">
         <v>176</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="28" t="s">
         <v>157</v>
       </c>
       <c r="H14" s="9"/>
@@ -3154,7 +3136,7 @@
       <c r="J14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="22"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:11">
       <c r="A15" s="7" t="s">
@@ -3166,14 +3148,14 @@
       <c r="C15" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="28" t="s">
         <v>178</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="28" t="s">
         <v>180</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -3182,7 +3164,7 @@
       <c r="J15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" ht="40" customHeight="1" spans="1:11">
       <c r="A16" s="7" t="s">
@@ -3194,14 +3176,14 @@
       <c r="C16" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="28" t="s">
         <v>182</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="28" t="s">
         <v>184</v>
       </c>
       <c r="I16" s="9" t="s">
@@ -3210,7 +3192,7 @@
       <c r="J16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="22"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" ht="40" customHeight="1" spans="1:11">
       <c r="A17" s="7" t="s">
@@ -3226,10 +3208,10 @@
         <v>187</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="28" t="s">
         <v>189</v>
       </c>
       <c r="H17" s="9"/>
@@ -3239,7 +3221,7 @@
       <c r="J17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="22"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" ht="83" customHeight="1" spans="1:11">
       <c r="A18" s="7" t="s">
@@ -3255,20 +3237,20 @@
         <v>192</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="28" t="s">
         <v>194</v>
       </c>
       <c r="H18" s="9"/>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" ht="40" customHeight="1" spans="1:11">
       <c r="A19" s="7" t="s">
@@ -3284,10 +3266,10 @@
         <v>148</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="28" t="s">
         <v>198</v>
       </c>
       <c r="H19" s="9"/>
@@ -3297,7 +3279,7 @@
       <c r="J19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="22"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" ht="40" customHeight="1" spans="1:11">
       <c r="A20" s="11" t="s">
@@ -3326,7 +3308,7 @@
       <c r="J20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="27"/>
+      <c r="K20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3363,52 +3345,52 @@
   </cols>
   <sheetData>
     <row r="1" ht="40.5" customHeight="1" spans="1:11">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:11">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="33" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3416,20 +3398,20 @@
       <c r="A3" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="27" t="s">
         <v>202</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
         <v>18</v>
@@ -3437,46 +3419,46 @@
       <c r="J3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" ht="74" customHeight="1" spans="1:11">
       <c r="A4" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="27" t="s">
         <v>202</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="K4" s="22"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:11">
       <c r="A5" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="30" t="s">
         <v>110</v>
       </c>
       <c r="E5" s="13"/>
@@ -3493,7 +3475,7 @@
       <c r="J5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3510,8 +3492,8 @@
   <sheetPr/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3541,8 +3523,8 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" ht="14.25" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -3569,13 +3551,13 @@
       <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3603,8 +3585,8 @@
       <c r="I3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" ht="158" customHeight="1" spans="1:11">
       <c r="A4" s="7" t="s">
@@ -3630,8 +3612,8 @@
       <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:11">
       <c r="A5" s="7" t="s">
@@ -3654,11 +3636,11 @@
         <v>218</v>
       </c>
       <c r="H5" s="9"/>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="22"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:11">
       <c r="A6" s="11" t="s">
@@ -3671,7 +3653,7 @@
         <v>94</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="14" t="s">
@@ -3684,8 +3666,8 @@
       <c r="I6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
